--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-2 Mar 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0188CD2-5C66-400A-B597-D1F772FC2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6B46C-D667-4034-A9DB-E7E2404E9B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Concepts</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Day-1</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
   </si>
   <si>
@@ -107,24 +104,9 @@
     <t>Case Study-1</t>
   </si>
   <si>
-    <t>FSD Intro,java Intro</t>
-  </si>
-  <si>
-    <t>6:30pm-7:30pm</t>
-  </si>
-  <si>
-    <t>https://github.com/sandeepsomavarapu/Odigos_batch2-22-03-2024.git</t>
-  </si>
-  <si>
     <t>Day-2</t>
   </si>
   <si>
-    <t>compailation,execution,jvm,compiler</t>
-  </si>
-  <si>
-    <t>java installation,helloworld example</t>
-  </si>
-  <si>
     <t>Day-3</t>
   </si>
   <si>
@@ -191,161 +173,38 @@
     <t>Day-24</t>
   </si>
   <si>
-    <t>revision of installation and compilation execution</t>
-  </si>
-  <si>
-    <t>Variables and datatypes</t>
-  </si>
-  <si>
-    <t>go throuth with language fundamentals</t>
-  </si>
-  <si>
-    <t>Alekhya</t>
-  </si>
-  <si>
-    <t>Prasad V</t>
-  </si>
-  <si>
-    <t>Raja yadav</t>
-  </si>
-  <si>
-    <t>Srinivas</t>
-  </si>
-  <si>
-    <t>Yaswanth Pemmadi</t>
-  </si>
-  <si>
-    <t>https://github.com/prasad-115/assignment-1.git</t>
-  </si>
-  <si>
-    <t>https://github.com/Yaswanth2391/Java-Full-Stack.git</t>
-  </si>
-  <si>
-    <t>Dakshayani Garaga</t>
-  </si>
-  <si>
-    <t>G Kavya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package and Import keywords </t>
-  </si>
-  <si>
-    <t>swathi</t>
-  </si>
-  <si>
-    <t>Rahul Varma</t>
-  </si>
-  <si>
-    <t>https://github.com/Rahul-varma-682</t>
-  </si>
-  <si>
-    <t>https://github.com/Adurthy-geethikasreealekhya/java.git</t>
-  </si>
-  <si>
-    <t>Eclipse Usage</t>
-  </si>
-  <si>
-    <t>Aryan</t>
-  </si>
-  <si>
-    <t>Lokesh</t>
-  </si>
-  <si>
-    <t>https://github.com/srinivassunkaragithub</t>
-  </si>
-  <si>
-    <t>https://github.com/Satyasaiswathi6300/swathi_2429.git</t>
-  </si>
-  <si>
-    <t>https://github.com/aryanvanapalli</t>
-  </si>
-  <si>
-    <t>https://github.com/kavyagavireddy</t>
-  </si>
-  <si>
-    <t>5:30pm-6:30pm</t>
-  </si>
-  <si>
-    <t>complete assignment -1</t>
-  </si>
-  <si>
-    <t>https://github.com/dakshayanigithub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variables,instance and static </t>
-  </si>
-  <si>
-    <t>6:00pm-7:30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methods </t>
-  </si>
-  <si>
-    <t>Assignment-2 on methods scanner</t>
-  </si>
-  <si>
-    <t>6:00pm-7:20pm</t>
-  </si>
-  <si>
-    <t>Flow control statements</t>
-  </si>
-  <si>
-    <t>6:00pm -7:00pm</t>
-  </si>
-  <si>
-    <t>https://github.com/RAJAYADAV22</t>
-  </si>
-  <si>
-    <t>JVM Achitecture,JDK,JRE</t>
-  </si>
-  <si>
-    <t>Scanner class,arrays</t>
-  </si>
-  <si>
-    <t>Arrays Assignment</t>
-  </si>
-  <si>
-    <t>laptop issue</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>Arrays,String ,StringBuffer,StringBuilder</t>
-  </si>
-  <si>
-    <t>String,StringBuffer,StringBuilder</t>
-  </si>
-  <si>
-    <t>String methods assignments</t>
-  </si>
-  <si>
-    <t>arrays pending</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>pending with upload</t>
-  </si>
-  <si>
-    <t>pending with few</t>
-  </si>
-  <si>
-    <t>assignment status,String,StrignBuffer,StringBuilder</t>
-  </si>
-  <si>
-    <t>String Tasks</t>
-  </si>
-  <si>
-    <t>Revision of variables and datatypes and methods,execution flow</t>
+    <t>Rajeshwari Rao</t>
+  </si>
+  <si>
+    <t>Harsitha</t>
+  </si>
+  <si>
+    <t>https://github.com/sandeepsomavarapu/RAHA_JAVA_FSD.git</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1pBS9sn2K_FWEQ4otuJpUYbsoNDJ4NZmB?usp=drive_link</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>7pm-8pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Installation and eclipse </t>
+  </si>
+  <si>
+    <t>Java Intro,compailation,execution,.java,.classjdkc,jvm,jre</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/in/java/technologies/downloads/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,15 +260,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -417,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -582,9 +426,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,7 +439,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,13 +456,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -638,29 +476,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -944,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +778,7 @@
     <col min="6" max="6" width="68.44140625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="68.6640625" customWidth="1"/>
-    <col min="9" max="9" width="68.109375" customWidth="1"/>
+    <col min="9" max="9" width="71.44140625" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -964,6 +786,9 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="7" t="s">
@@ -990,322 +815,222 @@
         <v>10</v>
       </c>
       <c r="E5" s="10">
-        <v>45373</v>
+        <v>45400</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="26"/>
       <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10">
-        <v>45374</v>
+        <v>45404</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45375</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="10">
-        <v>45377</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10">
-        <v>45378</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>79</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="10">
-        <v>45379</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10">
-        <v>45383</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45384</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="10">
-        <v>45385</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>84</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10">
-        <v>45386</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10">
-        <v>45387</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10">
-        <v>45390</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="10">
-        <v>45392</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>91</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10">
-        <v>45393</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="D19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="10">
-        <v>45394</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>96</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="10">
-        <v>45397</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>102</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="10">
-        <v>45398</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="3"/>
       <c r="M24" s="5" t="s">
         <v>5</v>
@@ -1313,76 +1038,76 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="3"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="3"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="27"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="27"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="27"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="27"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="3"/>
       <c r="M32" t="s">
         <v>6</v>
@@ -1392,992 +1117,992 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="27"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="27"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="27"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="27"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="27"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="27"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="27"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="27"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="27"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="27"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="27"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="27"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="27"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="27"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="27"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="27"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="27"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="27"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="27"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="27"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="27"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="27"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="27"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="27"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="27"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="27"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="27"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="27"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" s="9"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" s="9"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" s="9"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" s="9"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="27"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="27"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="26"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="27"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="27"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="27"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="26"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="27"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="27"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="27"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="27"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="26"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="9"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87" s="9"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88" s="9"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D89" s="9"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D90" s="9"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D91" s="9"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D92" s="9"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D93" s="9"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D94" s="9"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D95" s="9"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D96" s="9"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" s="9"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" s="9"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" s="9"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" s="9"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" s="9"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" s="9"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D103" s="9"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D104" s="9"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D105" s="9"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D106" s="9"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D107" s="9"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D108" s="9"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D109" s="9"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D110" s="9"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D111" s="9"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D112" s="9"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D113" s="9"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D114" s="9"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D115" s="9"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D116" s="9"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="3"/>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D117" s="9"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D118" s="9"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D119" s="9"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D120" s="9"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D121" s="9"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D122" s="9"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="26"/>
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D123" s="9"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D124" s="9"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D125" s="9"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D126" s="35"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D127" s="35"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D128" s="35"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D129" s="35"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D130" s="35"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D131" s="35"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D132" s="35"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D133" s="35"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D134" s="35"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D135" s="35"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D136" s="35"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D137" s="35"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D138" s="35"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D139" s="35"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D140" s="35"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D141" s="35"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D142" s="35"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D143" s="35"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D144" s="35"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D145" s="35"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D146" s="35"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D147" s="35"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D148" s="35"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D149" s="35"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D150" s="35"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D151" s="35"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D152" s="35"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D153" s="35"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D154" s="35"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D155" s="35"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D156" s="35"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="4:9" x14ac:dyDescent="0.3">
@@ -2490,20 +2215,21 @@
   <hyperlinks>
     <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{D72C5436-2E84-4565-9780-921668693B3C}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{60D84BF8-42F9-4BED-A3F0-F972DC340F84}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{60D84BF8-42F9-4BED-A3F0-F972DC340F84}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{E3FCCE1E-75CC-4E20-8187-12980F61B688}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{95448295-836F-4037-B1FF-EB780DC54B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:J16"/>
+  <dimension ref="D3:J7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2517,246 +2243,67 @@
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="3:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>70</v>
-      </c>
+      <c r="E6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>62</v>
-      </c>
+      <c r="E7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="14">
-        <v>5</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="14">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="14">
-        <v>7</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="14">
-        <v>8</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="14">
-        <v>9</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="14">
-        <v>10</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="14">
-        <v>11</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" xr:uid="{C9ECEEAB-64C6-4C49-97FA-5428B3D21474}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{90A60168-0D84-4AAF-BB0F-CCF7AAE3A94D}"/>
-    <hyperlink ref="G15" r:id="rId3" xr:uid="{A102712F-F54D-4676-AD5D-F373869C5D81}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{41CB41EC-AA08-4944-A020-A2DEAEF756AD}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{16F921D6-5A6B-4066-984C-9EC2393538C3}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{51B48687-88C0-4D19-85DA-DBFAEB8904EC}"/>
-    <hyperlink ref="G14" r:id="rId7" xr:uid="{2BF07192-3F6D-497F-B45F-5F9B8341D428}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{90CB7BC4-9217-4681-9304-C0DC968A4BD8}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{89CBECDF-288D-4F5C-9966-A4E17BACA3C8}"/>
-    <hyperlink ref="G8" r:id="rId10" xr:uid="{361C96C8-5218-499C-8402-A162AC6D63AF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2765,7 +2312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3B35A-D8AC-47FF-919D-F2263980152C}">
   <dimension ref="E8:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:L18"/>
     </sheetView>
   </sheetViews>
@@ -2782,165 +2329,165 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="22"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="22"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="5:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E16" s="22"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="5:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="E17" s="22"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6B46C-D667-4034-A9DB-E7E2404E9B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8166F3-F49E-4873-B87E-B72A5A5005BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Concepts</t>
   </si>
@@ -197,7 +197,13 @@
     <t>Java Intro,compailation,execution,.java,.classjdkc,jvm,jre</t>
   </si>
   <si>
-    <t>https://www.oracle.com/in/java/technologies/downloads/</t>
+    <t>https://www.oracle.com/in/java/technologies/downloads/#java17</t>
+  </si>
+  <si>
+    <t>7pm-8:30pm</t>
+  </si>
+  <si>
+    <t>Identifiers,variables,datatypes</t>
   </si>
 </sst>
 </file>
@@ -766,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +792,7 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -839,7 +845,7 @@
         <v>55</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>54</v>
@@ -852,9 +858,15 @@
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="10">
+        <v>45405</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="6" t="s">
         <v>51</v>
@@ -866,7 +878,9 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" s="26"/>
       <c r="I8" s="3"/>
     </row>
@@ -876,7 +890,9 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H9" s="37"/>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -888,7 +904,9 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H10" s="26"/>
       <c r="I10" s="3"/>
     </row>
@@ -898,7 +916,9 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="26"/>
       <c r="I11" s="3"/>
     </row>
@@ -908,7 +928,9 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H12" s="26"/>
       <c r="I12" s="6"/>
     </row>
@@ -918,7 +940,9 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H13" s="37"/>
       <c r="I13" s="3"/>
     </row>
@@ -928,7 +952,9 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="3"/>
     </row>
@@ -938,7 +964,9 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H15" s="26"/>
       <c r="I15" s="3"/>
     </row>
@@ -948,7 +976,9 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="3"/>
     </row>
@@ -958,7 +988,9 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H17" s="37"/>
       <c r="I17" s="3"/>
     </row>
@@ -968,7 +1000,9 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H18" s="26"/>
       <c r="I18" s="3"/>
     </row>
@@ -979,7 +1013,9 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H19" s="37"/>
       <c r="I19" s="3"/>
     </row>
@@ -989,7 +1025,9 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H20" s="37"/>
       <c r="I20" s="3"/>
     </row>
@@ -999,7 +1037,9 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H21" s="26"/>
       <c r="I21" s="3"/>
     </row>
@@ -1009,7 +1049,9 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H22" s="26"/>
       <c r="I22" s="3"/>
     </row>
@@ -1019,7 +1061,9 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H23" s="26"/>
       <c r="I23" s="6"/>
     </row>
@@ -1029,7 +1073,9 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H24" s="26"/>
       <c r="I24" s="3"/>
       <c r="M24" s="5" t="s">
@@ -1042,7 +1088,9 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H25" s="26"/>
       <c r="I25" s="3"/>
       <c r="M25" s="5"/>
@@ -1053,7 +1101,9 @@
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H26" s="26"/>
       <c r="I26" s="3"/>
       <c r="M26" s="5"/>
@@ -1064,7 +1114,9 @@
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H27" s="26"/>
       <c r="I27" s="6"/>
     </row>
@@ -1074,7 +1126,9 @@
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="3"/>
     </row>
@@ -2218,9 +2272,10 @@
     <hyperlink ref="I9" r:id="rId3" xr:uid="{60D84BF8-42F9-4BED-A3F0-F972DC340F84}"/>
     <hyperlink ref="I6" r:id="rId4" xr:uid="{E3FCCE1E-75CC-4E20-8187-12980F61B688}"/>
     <hyperlink ref="I7" r:id="rId5" xr:uid="{95448295-836F-4037-B1FF-EB780DC54B63}"/>
+    <hyperlink ref="I3" r:id="rId6" location="java17" xr:uid="{DE144119-056E-413A-94CD-F982CF0A7B88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8166F3-F49E-4873-B87E-B72A5A5005BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAAABB-6ABD-4FC6-81DC-F9884EFDEF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Concepts</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Identifiers,variables,datatypes</t>
+  </si>
+  <si>
+    <t>variables,instance,static</t>
   </si>
 </sst>
 </file>
@@ -772,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,8 +879,12 @@
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="10">
+        <v>45406</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="G8" s="30" t="s">
         <v>53</v>
       </c>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAAABB-6ABD-4FC6-81DC-F9884EFDEF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2FD96-F312-44D2-BA6C-36F64983A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Concepts</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>variables,instance,static</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>methods</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,8 +901,12 @@
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="10">
+        <v>45407</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="30" t="s">
         <v>53</v>
       </c>
@@ -909,8 +919,12 @@
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="10">
+        <v>45408</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="30" t="s">
         <v>53</v>
       </c>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2FD96-F312-44D2-BA6C-36F64983A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C203A5-4789-4254-B340-1A266B4EFEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Concepts</t>
   </si>
@@ -209,10 +209,16 @@
     <t>variables,instance,static</t>
   </si>
   <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>methods</t>
+    <t>26th trainer not available</t>
+  </si>
+  <si>
+    <t>methods.instance,static</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Arrays,flow control statements ,eclipse</t>
   </si>
 </sst>
 </file>
@@ -781,13 +787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="68.44140625" customWidth="1"/>
@@ -797,7 +804,7 @@
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>8</v>
       </c>
@@ -805,7 +812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
@@ -825,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
@@ -843,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
@@ -863,7 +870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
@@ -881,7 +888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
@@ -897,7 +904,7 @@
       <c r="H8" s="26"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
@@ -915,15 +922,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="10">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>53</v>
@@ -931,19 +941,23 @@
       <c r="H10" s="26"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="10">
+        <v>45412</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
@@ -955,7 +969,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
@@ -967,7 +981,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
@@ -979,7 +993,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
@@ -991,7 +1005,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
         <v>35</v>
       </c>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C203A5-4789-4254-B340-1A266B4EFEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92B0B1-397B-4537-B47E-A7D38831AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Concepts</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Arrays,flow control statements ,eclipse</t>
+  </si>
+  <si>
+    <t>Arrays,flow control statements</t>
+  </si>
+  <si>
+    <t>JDK,JVM,JRE</t>
   </si>
 </sst>
 </file>
@@ -788,7 +794,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,24 +967,32 @@
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="10">
+        <v>45413</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="H12" s="37"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="10">
+        <v>45414</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="H13" s="26"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92B0B1-397B-4537-B47E-A7D38831AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3391B-AD8A-43E6-AE1A-E7EF4911DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <t>Arrays,flow control statements</t>
   </si>
   <si>
-    <t>JDK,JVM,JRE</t>
+    <t>JDK,JVM,JRE, arrays</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Feb 18th RaHa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3391B-AD8A-43E6-AE1A-E7EF4911DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33B7CA-C6B5-4035-A879-5F1ADF7DB3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Concepts</t>
   </si>
@@ -224,7 +224,34 @@
     <t>Arrays,flow control statements</t>
   </si>
   <si>
-    <t>JDK,JVM,JRE, arrays</t>
+    <t>Array's Assignment</t>
+  </si>
+  <si>
+    <t>Basic assignment</t>
+  </si>
+  <si>
+    <t>assignemnt-1</t>
+  </si>
+  <si>
+    <t>JDK,JVM,JRE</t>
+  </si>
+  <si>
+    <t>instance/static</t>
+  </si>
+  <si>
+    <t>string,stringbuffer,stringbuilder</t>
+  </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>oops</t>
+  </si>
+  <si>
+    <t>JVM</t>
   </si>
 </sst>
 </file>
@@ -794,13 +821,14 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="68.44140625" customWidth="1"/>
@@ -960,7 +988,9 @@
       <c r="G11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -987,24 +1017,32 @@
         <v>45414</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="10">
+        <v>45415</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
@@ -1032,6 +1070,9 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
@@ -1044,6 +1085,9 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1057,6 +1101,9 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1069,6 +1116,9 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
       <c r="D20" s="9" t="s">
         <v>39</v>
       </c>
@@ -1081,6 +1131,9 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
       <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
@@ -1093,6 +1146,9 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
